--- a/app/static/uploads/excels/1.xlsx
+++ b/app/static/uploads/excels/1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t xml:space="preserve">Họ</t>
   </si>
@@ -28,70 +28,151 @@
     <t xml:space="preserve">Tên</t>
   </si>
   <si>
-    <t xml:space="preserve">Đặng Tuấn</t>
+    <t xml:space="preserve">Đồng Mai Phương</t>
   </si>
   <si>
     <t xml:space="preserve">Anh</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoàng Đức Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lưu Trang Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Hoàng Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Thị Hiền Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Khắc Việt Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đỗ Hoàng Gia Bảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thị Minh Châu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tăng Phương Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gan Feng Du</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Tiến Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thái Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần An Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mạc Trung Đức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Hương Giang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Ngân Hà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Lê Hiếu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Xuân Hòa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khoa Minh Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hữu Hiệp Hoàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Mạnh Hùng</t>
+    <t xml:space="preserve">Đào Huy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Văn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoàngMai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Đình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ng. Thị Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Văn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Diệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Nhật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngọc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Quốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điểu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntonh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Bích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Xuân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu Thanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Anh</t>
   </si>
 </sst>
 </file>
@@ -188,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,159 +302,199 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
